--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_307__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_307__Reeval_LHS_Modell_1.3.xlsx
@@ -5894,13 +5894,13 @@
                   <c:v>60.25075531005859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.63986968994141</c:v>
+                  <c:v>68.63986206054688</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>61.62685394287109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.45798492431641</c:v>
+                  <c:v>65.45797729492188</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>74.47000122070312</c:v>
@@ -5909,7 +5909,7 @@
                   <c:v>73.77634429931641</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.03446960449219</c:v>
+                  <c:v>71.03447723388672</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>73.61550903320312</c:v>
@@ -5927,7 +5927,7 @@
                   <c:v>72.57698822021484</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.17420196533203</c:v>
+                  <c:v>65.1741943359375</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>75.77854919433594</c:v>
@@ -5984,13 +5984,13 @@
                   <c:v>65.56432342529297</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>74.08203125</c:v>
+                  <c:v>74.08203887939453</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>69.21822357177734</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68.42092132568359</c:v>
+                  <c:v>68.42091369628906</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>68.27486419677734</c:v>
@@ -6032,7 +6032,7 @@
                   <c:v>59.25245666503906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>72.90508270263672</c:v>
+                  <c:v>72.90509033203125</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>67.27239227294922</c:v>
@@ -6071,10 +6071,10 @@
                   <c:v>71.36002349853516</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>59.10929870605469</c:v>
+                  <c:v>59.10929107666016</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>64.54051208496094</c:v>
+                  <c:v>64.54050445556641</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>70.11452484130859</c:v>
@@ -6098,10 +6098,10 @@
                   <c:v>61.34333801269531</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>66.24324035644531</c:v>
+                  <c:v>66.24323272705078</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>65.57494354248047</c:v>
+                  <c:v>65.57493591308594</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>67.90478515625</c:v>
@@ -6113,7 +6113,7 @@
                   <c:v>70.85561370849609</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>70.58639526367188</c:v>
+                  <c:v>70.58640289306641</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>62.23379516601562</c:v>
@@ -6137,7 +6137,7 @@
                   <c:v>69.51815032958984</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>69.78419494628906</c:v>
+                  <c:v>69.78420257568359</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>68.36060333251953</c:v>
@@ -7071,7 +7071,7 @@
         <v>73.1687</v>
       </c>
       <c r="F9">
-        <v>68.63986968994141</v>
+        <v>68.63986206054688</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>73.7132</v>
       </c>
       <c r="F11">
-        <v>65.45798492431641</v>
+        <v>65.45797729492188</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>86.3768</v>
       </c>
       <c r="F14">
-        <v>71.03446960449219</v>
+        <v>71.03447723388672</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>49.1802</v>
       </c>
       <c r="F20">
-        <v>65.17420196533203</v>
+        <v>65.1741943359375</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>84.6387</v>
       </c>
       <c r="F39">
-        <v>74.08203125</v>
+        <v>74.08203887939453</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>42.0409</v>
       </c>
       <c r="F41">
-        <v>68.42092132568359</v>
+        <v>68.42091369628906</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>72.90508270263672</v>
+        <v>72.90509033203125</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>72.51430000000001</v>
       </c>
       <c r="F68">
-        <v>59.10929870605469</v>
+        <v>59.10929107666016</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>69.7713</v>
       </c>
       <c r="F69">
-        <v>64.54051208496094</v>
+        <v>64.54050445556641</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>78.3785</v>
       </c>
       <c r="F77">
-        <v>66.24324035644531</v>
+        <v>66.24323272705078</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>82.36839999999999</v>
       </c>
       <c r="F78">
-        <v>65.57494354248047</v>
+        <v>65.57493591308594</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>59.0528</v>
       </c>
       <c r="F82">
-        <v>70.58639526367188</v>
+        <v>70.58640289306641</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>65.8325</v>
       </c>
       <c r="F90">
-        <v>69.78419494628906</v>
+        <v>69.78420257568359</v>
       </c>
     </row>
     <row r="91" spans="1:6">
